--- a/buscas.xlsx
+++ b/buscas.xlsx
@@ -453,7 +453,7 @@
         <v>3000</v>
       </c>
       <c r="D2" s="4">
-        <v>3500</v>
+        <v>4500</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">

--- a/buscas.xlsx
+++ b/buscas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Nome</t>
   </si>
@@ -37,7 +37,13 @@
     <t>rtx 3060</t>
   </si>
   <si>
-    <t>zota galax</t>
+    <t>2060 gtx</t>
+  </si>
+  <si>
+    <t>ssd 240 gb</t>
+  </si>
+  <si>
+    <t>hdd 120 512</t>
   </si>
 </sst>
 </file>
@@ -45,7 +51,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +69,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -94,7 +106,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -106,6 +118,9 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -416,16 +431,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="20.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="19.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="20.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="19.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -470,6 +485,20 @@
         <v>4500</v>
       </c>
     </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5">
+        <v>50</v>
+      </c>
+      <c r="D4" s="5">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
